--- a/PPP/Testcase_3 test 00.xlsx
+++ b/PPP/Testcase_3 test 00.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -207,15 +207,9 @@
     <t>ไม่ได้เลือก</t>
   </si>
   <si>
-    <t>บันทึกไม่สำเร็จ แจ้งเตือนว่าไม่ได้เลือกอาจารย์</t>
-  </si>
-  <si>
     <t>ไม่ได้ใส่</t>
   </si>
   <si>
-    <t>บันทึกไม่สำเร็จ แจ้งเตือนให้ใส่หัวข้อโครงงาน</t>
-  </si>
-  <si>
     <t>เลือกอาจารย์ที่ปรึกษาไม่ซ้ำ</t>
   </si>
   <si>
@@ -225,17 +219,92 @@
     <t>เลือกอาจารย์ที่ปรึกษาร่วมไม่ซ้ำ</t>
   </si>
   <si>
-    <t>ซ้ำใน DB</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t>ไม่ซ้ำใน DB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนให้ใส่หัวข้อโครงงาน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าไม่ได้เลือกอาจารย์</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>รอการยืนยัน</t>
+    </r>
+  </si>
+  <si>
+    <t>*X คือ Don't Care</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่ามีการเลือกอาจารย์ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าไม่ได้เลือกกรรมการ</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +358,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -334,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -624,6 +707,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -668,6 +760,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -704,108 +812,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,16 +1219,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="24">
       <c r="A2" s="1" t="s">
@@ -1187,10 +1277,10 @@
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="13"/>
@@ -1205,8 +1295,8 @@
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1219,8 +1309,8 @@
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1233,8 +1323,8 @@
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1247,8 +1337,8 @@
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1261,8 +1351,8 @@
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1275,7 +1365,7 @@
       <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1663,7 @@
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1589,7 +1679,7 @@
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
@@ -1603,7 +1693,7 @@
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1617,8 +1707,8 @@
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="29" t="s">
+      <c r="C41" s="33"/>
+      <c r="D41" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="13"/>
@@ -1631,8 +1721,8 @@
       <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -1643,8 +1733,8 @@
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -1655,8 +1745,8 @@
       <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -1667,8 +1757,8 @@
       <c r="B45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -1724,7 +1814,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="13"/>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="13"/>
@@ -1736,7 +1826,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="13"/>
-      <c r="B52" s="21"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -1764,429 +1854,1377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:T21"/>
+  <dimension ref="A8:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="36" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="22" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="4.125" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="4.625" customWidth="1"/>
-    <col min="11" max="11" width="3.75" customWidth="1"/>
-    <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="2.625" customWidth="1"/>
-    <col min="14" max="14" width="3.375" customWidth="1"/>
-    <col min="16" max="16" width="5.5" customWidth="1"/>
-    <col min="17" max="17" width="5.125" customWidth="1"/>
-    <col min="19" max="19" width="28.875" customWidth="1"/>
-    <col min="20" max="20" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
+    <col min="13" max="13" width="3.375" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
+    <col min="19" max="19" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:20">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="61" t="s">
+    <row r="8" spans="2:19">
+      <c r="B8" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="61" t="s">
+    <row r="9" spans="2:19">
+      <c r="B9" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="42" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="57" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="59" t="s">
+      <c r="S12" s="65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="2:19" ht="14.25" customHeight="1">
+      <c r="B13" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+    </row>
+    <row r="15" spans="2:19" ht="14.25" customHeight="1">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="60"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="60"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="65" t="s">
+      <c r="M15" s="52"/>
+      <c r="N15" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="65" t="s">
+      <c r="O15" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="60"/>
-    </row>
-    <row r="16" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="R15" s="64"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="2:19" ht="16.5" customHeight="1">
+      <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="55"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="56"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="60"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="R16" s="64"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="M17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" t="s">
+      <c r="B17" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="20" t="s">
         <v>59</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" customHeight="1">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="M18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" t="s">
+      <c r="B18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="20" t="s">
         <v>59</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="M19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" t="s">
+      <c r="B19" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="39"/>
+      <c r="N19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="20" t="s">
         <v>59</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="33">
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="39">
         <v>1</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="63" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="33">
+      <c r="I20" s="43"/>
+      <c r="J20" s="39">
         <v>1</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="M20">
+      <c r="K20" s="39"/>
+      <c r="L20" s="39">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="M20" s="39"/>
+      <c r="N20" s="20">
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="39">
+        <v>1</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="20">
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="S20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39">
+        <v>1</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="39">
+        <v>1</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="20">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="66">
+        <v>0</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66">
+        <v>0</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66">
+        <v>0</v>
+      </c>
+      <c r="K22" s="66"/>
+      <c r="L22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="66">
+        <v>0</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66">
+        <v>0</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="39">
+        <v>1</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="39"/>
+      <c r="N23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="66">
+        <v>0</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="66">
+        <v>0</v>
+      </c>
+      <c r="K24" s="66"/>
+      <c r="L24" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="39"/>
+      <c r="N24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="39">
+        <v>1</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="66">
+        <v>0</v>
+      </c>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66">
+        <v>0</v>
+      </c>
+      <c r="K25" s="66"/>
+      <c r="L25" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="N25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39">
+        <v>1</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="39"/>
+      <c r="N26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="39">
+        <v>1</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="B28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="39"/>
+      <c r="N28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="20"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="20"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="20"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="20"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="20"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="20"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="218">
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="L13:N14"/>
+    <mergeCell ref="O13:Q14"/>
+    <mergeCell ref="R12:R16"/>
+    <mergeCell ref="S12:S16"/>
+    <mergeCell ref="J13:K16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F13:G16"/>
+    <mergeCell ref="H13:I16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="S12:S16"/>
-    <mergeCell ref="T12:T16"/>
-    <mergeCell ref="J13:K16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="F13:G16"/>
-    <mergeCell ref="H13:I16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
